--- a/khusat_DB/khusat_data.xlsx
+++ b/khusat_DB/khusat_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\khusat_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95355646-8976-4EC7-BA61-E2542A93871C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063D944-47B9-48AD-AEF3-5383801BD79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35625" yWindow="2040" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>보직</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,26 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>운전병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헌병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소총수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +296,85 @@
   </si>
   <si>
     <t>맛있는 반찬 먼저먹냐 나중에 먹냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼밥을 얼마나 자주 하십니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동을 주3회이상 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈치가 빠르다 느리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀을 잘 지킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참을성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법을 잘지킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반행정병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군사경찰(헌병)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군종병</t>
+  </si>
+  <si>
+    <t>운전병,크레인차량운전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조리병, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛없는 반찬 맛있게먹는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 된장찌개를 끓일줄 안다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛소금과 소금의 차이를 안다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신은 존재한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랭크를 1분이상 할 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B- 재수강한다 안한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -890,37 +949,57 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -928,37 +1007,97 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/khusat_DB/khusat_data.xlsx
+++ b/khusat_DB/khusat_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\khusat_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063D944-47B9-48AD-AEF3-5383801BD79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D87804-4AD1-584B-B8A9-F17EB87AAC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="0" yWindow="2740" windowWidth="28800" windowHeight="15440" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>보직</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>군사경찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 운동을 좋아합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 기분에 따라 행동합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,42 +279,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샤프, 연필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주어진 과제가 있으면 최대한 빨리 끝내려고 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맛있는 반찬 먼저먹냐 나중에 먹냐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼밥을 얼마나 자주 하십니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동을 주3회이상 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈치가 빠르다 느리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀을 잘 지킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참을성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법을 잘지킨다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맛없는 반찬 맛있게먹는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 된장찌개를 끓일줄 안다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,15 +322,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신은 존재한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랭크를 1분이상 할 수 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B- 재수강한다 안한다</t>
+    <t>나는 사색을 즐기는 편이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 로봇을 조종하는것에 흥미를 느낀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 규칙을 지키는것에 민감하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 개인의 기량이/팀의 협동심이 중요하다고 생각한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 시간을 오래 투자하는 일을 잘하는 편이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 비밀을 아무에게도 말하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 활동적인것을 좋아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 샤프가/연필이 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 맛있는 반찬이 있으면 먼저/아껴먹습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 혼밥을 즐기는 편이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 운동을 주 3회 이상 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 눈치가 빠르다/느리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 법을 잘 지킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 참을성이 좋은편이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 식사가 맛이없어도 잘 먹는 편이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 신이 존재한다고 생각한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 플랭크를 1분이상 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-인 과목이 있으면 재수강을 한다/안한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 정밀한 조작에 자신이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 익숙한 경험보다는 새로운 경험을 추구한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 내용을 이해/암기하려고 하는 편이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,20 +854,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
-  <dimension ref="B2:E55"/>
+  <dimension ref="B2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -839,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -850,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -861,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -872,10 +911,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -883,10 +922,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -894,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -905,10 +944,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -916,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -927,10 +966,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -938,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -949,155 +988,198 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>49</v>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
